--- a/data/trans_orig/P14B27-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94E0F92-896E-4C61-BA3B-702B9FD7EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2AD4F9-D561-45F1-AC70-2C4CF46EA6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46ABAA46-EF08-4D05-9B79-F60D656E7979}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{355AE388-0B41-4AC9-8F97-B745A6D4DE17}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>68,21%</t>
+    <t>72,22%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -121,7 +121,7 @@
     <t>10,22%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>27,78%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -130,6 +130,9 @@
     <t>59,14%</t>
   </si>
   <si>
+    <t>18,84%</t>
+  </si>
+  <si>
     <t>66,3%</t>
   </si>
   <si>
@@ -139,15 +142,18 @@
     <t>63,18%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
+    <t>81,16%</t>
+  </si>
+  <si>
     <t>33,7%</t>
   </si>
   <si>
@@ -157,10 +163,10 @@
     <t>36,82%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -169,55 +175,55 @@
     <t>49,75%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>58,46%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
   </si>
   <si>
     <t>41,54%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>45,44%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -226,49 +232,49 @@
     <t>78,78%</t>
   </si>
   <si>
-    <t>44,81%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>55,19%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -304,55 +310,55 @@
     <t>51,34%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>53,22%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>46,78%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -361,928 +367,922 @@
     <t>44,62%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>63,78%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
     <t>34,26%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
   </si>
   <si>
     <t>65,74%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC045FAE-D4CB-4BD9-B9E0-0C2137950A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098340FD-1729-48B9-A2AA-E760975298F3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2113,7 +2113,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2125,10 +2125,10 @@
         <v>4219</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -2140,13 +2140,13 @@
         <v>7122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2161,13 @@
         <v>2005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2176,13 +2176,13 @@
         <v>2144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2191,13 +2191,13 @@
         <v>4149</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2265,13 @@
         <v>9192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2280,13 +2280,13 @@
         <v>13320</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2295,13 +2295,13 @@
         <v>22513</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2316,13 @@
         <v>9283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2331,13 +2331,13 @@
         <v>9465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2346,13 +2346,13 @@
         <v>18748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2420,10 +2420,10 @@
         <v>7636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2435,13 +2435,13 @@
         <v>6250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2450,13 +2450,13 @@
         <v>13886</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2471,13 @@
         <v>2057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2486,13 +2486,13 @@
         <v>5702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2501,13 +2501,13 @@
         <v>7759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2590,7 +2590,7 @@
         <v>2030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>21</v>
@@ -2605,10 +2605,10 @@
         <v>4174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -2632,7 +2632,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2641,7 +2641,7 @@
         <v>1936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
@@ -2656,13 +2656,13 @@
         <v>1936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2730,13 @@
         <v>7343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2745,13 +2745,13 @@
         <v>8505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2760,13 +2760,13 @@
         <v>15848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>6961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2796,13 +2796,13 @@
         <v>6967</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2811,13 +2811,13 @@
         <v>13928</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2885,13 +2885,13 @@
         <v>5470</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2900,13 +2900,13 @@
         <v>11729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2915,13 +2915,13 @@
         <v>17200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2936,13 @@
         <v>6790</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2951,13 +2951,13 @@
         <v>6662</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2966,13 +2966,13 @@
         <v>13452</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>39835</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -3055,13 +3055,13 @@
         <v>58065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -3070,13 +3070,13 @@
         <v>97900</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>27096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -3106,13 +3106,13 @@
         <v>34829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>57</v>
@@ -3121,13 +3121,13 @@
         <v>61925</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A0AC5-00DC-4A23-B1D2-C0576A182114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3591CB04-9E3D-41DB-99A0-3D824C4996FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3224,7 +3224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3331,7 +3331,7 @@
         <v>1868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
@@ -3346,13 +3346,13 @@
         <v>5743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3361,13 +3361,13 @@
         <v>7611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
         <v>1138</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -3397,13 +3397,13 @@
         <v>3719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3412,13 +3412,13 @@
         <v>4856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -3501,10 +3501,10 @@
         <v>4828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -3516,10 +3516,10 @@
         <v>5907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3543,7 +3543,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3552,13 +3552,13 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3567,13 +3567,13 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3641,13 @@
         <v>1862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3656,13 +3656,13 @@
         <v>1156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3671,13 +3671,13 @@
         <v>3017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3692,10 @@
         <v>3311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -3707,10 +3707,10 @@
         <v>4105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>14</v>
@@ -3722,13 +3722,13 @@
         <v>7416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3796,7 +3796,7 @@
         <v>1076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
@@ -3811,10 +3811,10 @@
         <v>4640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3826,13 +3826,13 @@
         <v>5715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3847,7 @@
         <v>1729</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
@@ -3862,13 +3862,13 @@
         <v>1914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3877,13 +3877,13 @@
         <v>3643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3939,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3964,13 +3964,13 @@
         <v>1164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3979,13 +3979,13 @@
         <v>1164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,10 +4013,10 @@
         <v>5565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>14</v>
@@ -4028,10 +4028,10 @@
         <v>5565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>14</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4100,10 +4100,10 @@
         <v>3243</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -4115,13 +4115,13 @@
         <v>3484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4130,13 +4130,13 @@
         <v>6727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4151,13 @@
         <v>974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4166,13 +4166,13 @@
         <v>4813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4181,13 +4181,13 @@
         <v>5787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4255,13 +4255,13 @@
         <v>4671</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4270,13 +4270,13 @@
         <v>11925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4285,13 +4285,13 @@
         <v>16597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4306,13 @@
         <v>6609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -4321,13 +4321,13 @@
         <v>7585</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4336,13 +4336,13 @@
         <v>14193</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4416,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4425,13 +4425,13 @@
         <v>10571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4440,13 +4440,13 @@
         <v>10571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -4476,13 +4476,13 @@
         <v>8269</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4491,13 +4491,13 @@
         <v>16098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4565,13 @@
         <v>13798</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -4580,13 +4580,13 @@
         <v>43510</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4595,13 +4595,13 @@
         <v>57308</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4616,13 @@
         <v>21590</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -4631,13 +4631,13 @@
         <v>36955</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -4646,13 +4646,13 @@
         <v>58545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4708,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76C191-B5AA-4DFF-8983-7FEDA362CEA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7608FEB-191F-4E3A-8321-FFFD24A7A833}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -4913,7 +4913,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5014,10 +5014,10 @@
         <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5026,13 +5026,13 @@
         <v>9417</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5041,13 +5041,13 @@
         <v>14576</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5062,13 @@
         <v>6692</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>13344</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5092,13 +5092,13 @@
         <v>20036</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5166,13 @@
         <v>5506</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5181,13 +5181,13 @@
         <v>9510</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5196,13 +5196,13 @@
         <v>15016</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,16 +5214,16 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>14785</v>
+        <v>14784</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5232,13 +5232,13 @@
         <v>12881</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -5247,13 +5247,13 @@
         <v>27665</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>20291</v>
+        <v>20290</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5321,13 +5321,13 @@
         <v>3678</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5336,13 +5336,13 @@
         <v>3292</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5351,13 +5351,13 @@
         <v>6970</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5372,13 @@
         <v>3342</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -5387,13 +5387,13 @@
         <v>6073</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5402,13 +5402,13 @@
         <v>9415</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5464,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5476,13 +5476,13 @@
         <v>2073</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5491,13 +5491,13 @@
         <v>4389</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5506,13 +5506,13 @@
         <v>6462</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5527,13 @@
         <v>7088</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5542,13 +5542,13 @@
         <v>4258</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5557,13 +5557,13 @@
         <v>11346</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,7 +5619,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5631,13 +5631,13 @@
         <v>7067</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5646,13 +5646,13 @@
         <v>8410</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -5661,13 +5661,13 @@
         <v>15477</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5682,13 @@
         <v>23359</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -5697,13 +5697,13 @@
         <v>24677</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -5712,13 +5712,13 @@
         <v>48037</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,7 +5774,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5786,13 +5786,13 @@
         <v>8972</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5801,13 +5801,13 @@
         <v>14396</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -5816,13 +5816,13 @@
         <v>23368</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5837,13 @@
         <v>12566</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -5852,13 +5852,13 @@
         <v>32022</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -5867,13 +5867,13 @@
         <v>44588</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,7 +5929,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5941,13 +5941,13 @@
         <v>3390</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -5956,13 +5956,13 @@
         <v>10363</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5971,13 +5971,13 @@
         <v>13752</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5992,13 @@
         <v>8018</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6007,13 +6007,13 @@
         <v>18176</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6022,13 +6022,13 @@
         <v>26195</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6096,13 @@
         <v>36727</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H28" s="7">
         <v>112</v>
@@ -6111,13 +6111,13 @@
         <v>61407</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6126,13 +6126,13 @@
         <v>98135</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>403</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6147,13 @@
         <v>75850</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H29" s="7">
         <v>200</v>
@@ -6162,13 +6162,13 @@
         <v>112489</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M29" s="7">
         <v>318</v>
@@ -6177,7 +6177,7 @@
         <v>188339</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>413</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B27-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2AD4F9-D561-45F1-AC70-2C4CF46EA6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA2795E5-BCC0-4198-8DDC-EBCC2FCAD6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{355AE388-0B41-4AC9-8F97-B745A6D4DE17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CED7CCA-4858-41B8-8FB8-D202FADDA5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -94,13 +94,13 @@
     <t>86,02%</t>
   </si>
   <si>
-    <t>60,64%</t>
+    <t>54,45%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>67,62%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -115,13 +115,13 @@
     <t>13,98%</t>
   </si>
   <si>
-    <t>39,36%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>32,38%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -130,43 +130,37 @@
     <t>59,14%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>16,47%</t>
+    <t>16,83%</t>
   </si>
   <si>
     <t>63,18%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>83,53%</t>
+    <t>83,17%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -175,55 +169,55 @@
     <t>49,75%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>58,46%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>41,54%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>45,44%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -232,663 +226,675 @@
     <t>78,78%</t>
   </si>
   <si>
-    <t>40,76%</t>
+    <t>44,61%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>23,53%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2016 (Tasa respuesta: 1,64%)</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
     <t>58,63%</t>
   </si>
   <si>
@@ -1090,9 +1096,6 @@
     <t>24,37%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
     <t>32,25%</t>
   </si>
   <si>
@@ -1118,9 +1121,6 @@
   </si>
   <si>
     <t>67,75%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
   </si>
   <si>
     <t>41,66%</t>
@@ -1694,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098340FD-1729-48B9-A2AA-E760975298F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83837DF4-AE62-4890-BE2E-8F9DECB1B35A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2113,7 +2113,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2125,10 +2125,10 @@
         <v>4219</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -2140,13 +2140,13 @@
         <v>7122</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2161,13 @@
         <v>2005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2176,13 +2176,13 @@
         <v>2144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2191,13 +2191,13 @@
         <v>4149</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2265,13 @@
         <v>9192</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2280,13 +2280,13 @@
         <v>13320</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2295,13 +2295,13 @@
         <v>22513</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2316,13 @@
         <v>9283</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2331,13 +2331,13 @@
         <v>9465</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2346,13 +2346,13 @@
         <v>18748</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2420,10 +2420,10 @@
         <v>7636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2435,13 +2435,13 @@
         <v>6250</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2450,13 +2450,13 @@
         <v>13886</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2471,13 @@
         <v>2057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2486,13 +2486,13 @@
         <v>5702</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2501,13 +2501,13 @@
         <v>7759</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2590,7 +2590,7 @@
         <v>2030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>21</v>
@@ -2605,10 +2605,10 @@
         <v>4174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -2632,7 +2632,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2641,7 +2641,7 @@
         <v>1936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
@@ -2656,13 +2656,13 @@
         <v>1936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2730,13 @@
         <v>7343</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2745,13 +2745,13 @@
         <v>8505</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2760,13 +2760,13 @@
         <v>15848</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>6961</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2796,13 +2796,13 @@
         <v>6967</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2811,13 +2811,13 @@
         <v>13928</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2885,13 +2885,13 @@
         <v>5470</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2900,13 +2900,13 @@
         <v>11729</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2915,13 +2915,13 @@
         <v>17200</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2936,13 @@
         <v>6790</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2951,13 +2951,13 @@
         <v>6662</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2966,13 +2966,13 @@
         <v>13452</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>39835</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -3055,13 +3055,13 @@
         <v>58065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -3070,13 +3070,13 @@
         <v>97900</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>27096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -3106,13 +3106,13 @@
         <v>34829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>57</v>
@@ -3121,13 +3121,13 @@
         <v>61925</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3591CB04-9E3D-41DB-99A0-3D824C4996FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B601F47E-C3DE-4516-83B1-EBD7D39DABFC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3224,7 +3224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3331,7 +3331,7 @@
         <v>1868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
@@ -3346,13 +3346,13 @@
         <v>5743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3361,13 +3361,13 @@
         <v>7611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
         <v>1138</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -3397,13 +3397,13 @@
         <v>3719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3412,13 +3412,13 @@
         <v>4856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -3501,10 +3501,10 @@
         <v>4828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -3516,10 +3516,10 @@
         <v>5907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3543,7 +3543,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3552,13 +3552,13 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3567,13 +3567,13 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3641,13 @@
         <v>1862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3656,13 +3656,13 @@
         <v>1156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3671,13 +3671,13 @@
         <v>3017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3692,10 @@
         <v>3311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -3707,10 +3707,10 @@
         <v>4105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>14</v>
@@ -3722,13 +3722,13 @@
         <v>7416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3796,7 +3796,7 @@
         <v>1076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
@@ -3811,10 +3811,10 @@
         <v>4640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3826,13 +3826,13 @@
         <v>5715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3847,7 @@
         <v>1729</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
@@ -3862,13 +3862,13 @@
         <v>1914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3877,13 +3877,13 @@
         <v>3643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3939,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3964,13 +3964,13 @@
         <v>1164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3979,13 +3979,13 @@
         <v>1164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,10 +4013,10 @@
         <v>5565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>14</v>
@@ -4028,10 +4028,10 @@
         <v>5565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>14</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4100,10 +4100,10 @@
         <v>3243</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -4115,13 +4115,13 @@
         <v>3484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4130,13 +4130,13 @@
         <v>6727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4151,13 @@
         <v>974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4166,13 +4166,13 @@
         <v>4813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4181,13 +4181,13 @@
         <v>5787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4255,13 +4255,13 @@
         <v>4671</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4270,13 +4270,13 @@
         <v>11925</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4285,13 +4285,13 @@
         <v>16597</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4306,13 @@
         <v>6609</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -4321,13 +4321,13 @@
         <v>7585</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4336,13 +4336,13 @@
         <v>14193</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4416,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4425,13 +4425,13 @@
         <v>10571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4440,13 +4440,13 @@
         <v>10571</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -4476,13 +4476,13 @@
         <v>8269</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4491,13 +4491,13 @@
         <v>16098</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4565,13 @@
         <v>13798</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -4580,13 +4580,13 @@
         <v>43510</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4595,13 +4595,13 @@
         <v>57308</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4616,13 @@
         <v>21590</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -4631,13 +4631,13 @@
         <v>36955</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -4646,13 +4646,13 @@
         <v>58545</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4708,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7608FEB-191F-4E3A-8321-FFFD24A7A833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B00AAF3-88F3-4B11-8ED8-B9575D348BEF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -4913,7 +4913,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5014,10 +5014,10 @@
         <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5026,13 +5026,13 @@
         <v>9417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5041,13 +5041,13 @@
         <v>14576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5062,13 @@
         <v>6692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>13344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5092,13 +5092,13 @@
         <v>20036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5166,13 @@
         <v>5506</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5181,13 +5181,13 @@
         <v>9510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5196,13 +5196,13 @@
         <v>15016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5217,13 @@
         <v>14784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5232,13 +5232,13 @@
         <v>12881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -5247,13 +5247,13 @@
         <v>27665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5309,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5321,13 +5321,13 @@
         <v>3678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5336,13 +5336,13 @@
         <v>3292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5351,13 +5351,13 @@
         <v>6970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5372,13 @@
         <v>3342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -5387,13 +5387,13 @@
         <v>6073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5402,13 +5402,13 @@
         <v>9415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5464,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5476,13 +5476,13 @@
         <v>2073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5491,13 +5491,13 @@
         <v>4389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5506,13 +5506,13 @@
         <v>6462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5527,13 @@
         <v>7088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5542,13 +5542,13 @@
         <v>4258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5557,13 +5557,13 @@
         <v>11346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,7 +5619,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5631,13 +5631,13 @@
         <v>7067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5646,13 +5646,13 @@
         <v>8410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -5661,13 +5661,13 @@
         <v>15477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5682,13 @@
         <v>23359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -5697,13 +5697,13 @@
         <v>24677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -5712,13 +5712,13 @@
         <v>48037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,7 +5774,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
